--- a/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
+++ b/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Discussion Assignments</t>
   </si>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +513,10 @@
         <v>0.16750000000000001</v>
       </c>
       <c r="G2" s="2">
-        <v>0.1075</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.72499999999999998</v>
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -790,6 +790,12 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">

--- a/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
+++ b/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_23C263565EE0B293BA1BA3AF9CFA678AAEDA9372" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B2A1413-CE72-43E7-B545-BE359A71721F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
   <si>
     <t>Discussion Assignments</t>
   </si>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -168,6 +169,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -215,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +252,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,22 +496,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -510,16 +548,16 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F2" s="2">
-        <v>0.16750000000000001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -540,7 +578,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -561,7 +599,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -582,7 +620,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -596,7 +634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -608,7 +646,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -620,7 +658,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -634,7 +672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -648,7 +686,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -659,7 +697,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -670,7 +708,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -684,7 +722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -696,7 +734,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -708,7 +746,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -722,7 +760,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -736,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -747,7 +785,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -758,12 +796,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -777,17 +815,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -798,7 +836,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -812,22 +850,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -841,22 +900,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -870,17 +929,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -894,7 +953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -910,24 +969,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
+++ b/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/BUS1101 Principles of Business Management/Grade Calculations.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24822"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_23C263565EE0B293BA1BA3AF9CFA678AAEDA9372" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B2A1413-CE72-43E7-B545-BE359A71721F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F2F634-2C1E-4E1F-AD61-3A2D04F57232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,31 +12,75 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
   <si>
     <t>Discussion Assignments</t>
   </si>
   <si>
+    <t>Total Gain</t>
+  </si>
+  <si>
+    <t>Total Loss</t>
+  </si>
+  <si>
+    <t>Total Waiting</t>
+  </si>
+  <si>
     <t>Written Assignments</t>
   </si>
   <si>
+    <t>28.0625%</t>
+  </si>
+  <si>
+    <t>31.9375%</t>
+  </si>
+  <si>
     <t>Learning Journals</t>
   </si>
   <si>
+    <t>Absolute Minimum</t>
+  </si>
+  <si>
     <t>Graded Quizzes</t>
   </si>
   <si>
+    <t>Lowest Grade</t>
+  </si>
+  <si>
     <t>Final Exam</t>
   </si>
   <si>
+    <t>Highest Loss</t>
+  </si>
+  <si>
     <t>Unit 1</t>
   </si>
   <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
     <t>Discussion Assignment</t>
   </si>
   <si>
@@ -46,6 +90,9 @@
     <t>Learning Journal</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Written Assignment</t>
   </si>
   <si>
@@ -58,49 +105,40 @@
     <t>Unit 4</t>
   </si>
   <si>
+    <t>94.26%</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
     <t>Unit 5</t>
   </si>
   <si>
+    <t>1.125%</t>
+  </si>
+  <si>
+    <t>0.125%</t>
+  </si>
+  <si>
     <t>Unit 6</t>
   </si>
   <si>
     <t>Unit 7</t>
   </si>
   <si>
+    <t>1.1875%</t>
+  </si>
+  <si>
+    <t>0.0625%</t>
+  </si>
+  <si>
     <t>Unit 8</t>
   </si>
   <si>
+    <t>1.25%</t>
+  </si>
+  <si>
     <t>Unit 9</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Gain</t>
-  </si>
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
-    <t>Total Gain</t>
-  </si>
-  <si>
-    <t>Total Loss</t>
-  </si>
-  <si>
-    <t>Total Waiting</t>
-  </si>
-  <si>
-    <t>Lowest Grade</t>
-  </si>
-  <si>
-    <t>Highest Loss</t>
-  </si>
-  <si>
-    <t>Absolute Minimum</t>
   </si>
 </sst>
 </file>
@@ -110,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,18 +538,19 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,18 +564,18 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -547,19 +586,19 @@
       <c r="D2" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.20749999999999999</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.23</v>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -571,16 +610,16 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="1">
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -592,16 +631,16 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -613,30 +652,30 @@
         <v>0.4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -646,9 +685,9 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -658,23 +697,23 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>0.8</v>
@@ -686,45 +725,45 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -734,9 +773,9 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -746,9 +785,9 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>0.45</v>
@@ -760,23 +799,23 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -785,9 +824,9 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -796,85 +835,108 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
       <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
         <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
       </c>
       <c r="D32" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
         <v>0.4</v>
@@ -886,76 +948,113 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1073,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -986,7 +1085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
